--- a/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -379,7 +379,7 @@
     <t>Dark_Blue</t>
   </si>
   <si>
-    <t>30.07.19</t>
+    <t>01.08.19</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E91" sqref="E91"/>
+      <selection pane="bottomRight" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1159,19 +1159,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5" ht="15" hidden="1">
       <c r="A11" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B11" s="9">
         <v>770.92</v>
       </c>
-      <c r="C11" s="8">
-        <v>40</v>
-      </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
-        <v>30836.799999999999</v>
+        <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>107</v>
@@ -1239,19 +1237,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="9">
         <v>824.06</v>
       </c>
-      <c r="C16" s="8">
-        <v>40</v>
-      </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="10">
         <f>B16*C16</f>
-        <v>32962.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>84</v>
@@ -1473,19 +1469,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15">
+    <row r="31" spans="1:5" ht="15" hidden="1">
       <c r="A31" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="9">
         <v>5334.3029999999999</v>
       </c>
-      <c r="C31" s="8">
-        <v>10</v>
-      </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="10">
         <f t="shared" si="0"/>
-        <v>53343.03</v>
+        <v>0</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>106</v>
@@ -1743,19 +1737,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15">
+    <row r="49" spans="1:5" ht="15" hidden="1">
       <c r="A49" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="9">
         <v>1014.53</v>
       </c>
-      <c r="C49" s="8">
-        <v>30</v>
-      </c>
+      <c r="C49" s="8"/>
       <c r="D49" s="10">
         <f t="shared" si="0"/>
-        <v>30435.899999999998</v>
+        <v>0</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>85</v>
@@ -1788,17 +1780,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" hidden="1">
+    <row r="52" spans="1:5" ht="15">
       <c r="A52" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B52" s="9">
         <v>1024.5550000000001</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="8">
+        <v>80</v>
+      </c>
       <c r="D52" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81964.400000000009</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>101</v>
@@ -2106,17 +2100,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" hidden="1">
+    <row r="73" spans="1:5" ht="15">
       <c r="A73" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="9">
         <v>3530.8049999999998</v>
       </c>
-      <c r="C73" s="8"/>
+      <c r="C73" s="8">
+        <v>3</v>
+      </c>
       <c r="D73" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10592.414999999999</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>84</v>
@@ -2235,11 +2231,11 @@
       <c r="B81" s="41"/>
       <c r="C81" s="18">
         <f>SUM(C5:C80)</f>
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="D81" s="19">
         <f>SUM(D5:D80)</f>
-        <v>157524.935</v>
+        <v>102503.62000000001</v>
       </c>
       <c r="E81" s="18"/>
     </row>
@@ -2300,7 +2296,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="23">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="26"/>
@@ -2359,7 +2355,7 @@
       </c>
       <c r="C93" s="24">
         <f>SUBTOTAL(9,C87:C92)</f>
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="26"/>

--- a/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
   <si>
     <t>Model Name</t>
   </si>
@@ -325,9 +325,6 @@
     <t>D37</t>
   </si>
   <si>
-    <t>Black &amp; Gold</t>
-  </si>
-  <si>
     <t>T140</t>
   </si>
   <si>
@@ -373,13 +370,13 @@
     <t>i97</t>
   </si>
   <si>
-    <t>Black_Impressive_Blue</t>
-  </si>
-  <si>
     <t>Dark_Blue</t>
   </si>
   <si>
-    <t>01.08.19</t>
+    <t>05.08.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gold</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1003,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomRight" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1037,7 +1034,7 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="15">
       <c r="A3" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="20" t="s">
@@ -1047,7 +1044,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1124,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
@@ -1161,7 +1158,7 @@
     </row>
     <row r="11" spans="1:5" ht="15" hidden="1">
       <c r="A11" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="9">
         <v>770.92</v>
@@ -1172,20 +1169,22 @@
         <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="9">
         <v>896.23500000000001</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8">
+        <v>80</v>
+      </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71698.8</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>85</v>
@@ -1239,7 +1238,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="9">
         <v>824.06</v>
@@ -1253,17 +1252,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A17" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B17" s="9">
         <v>858.14</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8">
+        <v>40</v>
+      </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34325.599999999999</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>85</v>
@@ -1331,20 +1332,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" hidden="1">
+    <row r="22" spans="1:5" ht="15">
       <c r="A22" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="9">
         <v>1140.845</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8">
+        <v>40</v>
+      </c>
       <c r="D22" s="12">
         <f>C22*B22</f>
-        <v>0</v>
+        <v>45633.8</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1377,17 +1380,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" hidden="1">
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B25" s="9">
         <v>907.26</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="8">
+        <v>40</v>
+      </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36290.400000000001</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>85</v>
@@ -1482,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" hidden="1">
@@ -1575,7 +1580,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" hidden="1">
       <c r="A38" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="9">
         <v>6715.95</v>
@@ -1734,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" hidden="1">
@@ -1780,22 +1785,20 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15">
+    <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B52" s="9">
         <v>1024.5550000000001</v>
       </c>
-      <c r="C52" s="8">
-        <v>80</v>
-      </c>
+      <c r="C52" s="8"/>
       <c r="D52" s="10">
         <f t="shared" si="0"/>
-        <v>81964.400000000009</v>
+        <v>0</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
@@ -1856,17 +1859,19 @@
       </c>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="1:5" ht="15" hidden="1">
+    <row r="57" spans="1:5" ht="15">
       <c r="A57" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="9">
         <v>5607.9849999999997</v>
       </c>
-      <c r="C57" s="8"/>
+      <c r="C57" s="8">
+        <v>5</v>
+      </c>
       <c r="D57" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28039.924999999999</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>84</v>
@@ -1930,17 +1935,19 @@
       </c>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:5" ht="15" hidden="1">
+    <row r="62" spans="1:5" ht="15">
       <c r="A62" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B62" s="9">
         <v>4896.21</v>
       </c>
-      <c r="C62" s="8"/>
+      <c r="C62" s="8">
+        <v>5</v>
+      </c>
       <c r="D62" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24481.05</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>84</v>
@@ -1960,38 +1967,38 @@
       </c>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:5" ht="15">
+    <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="9">
         <v>4973.4025000000001</v>
       </c>
-      <c r="C64" s="8">
-        <v>2</v>
-      </c>
+      <c r="C64" s="8"/>
       <c r="D64" s="10">
         <f t="shared" si="1"/>
-        <v>9946.8050000000003</v>
+        <v>0</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" hidden="1">
+    <row r="65" spans="1:5" ht="15">
       <c r="A65" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B65" s="9">
         <v>4701.7299999999996</v>
       </c>
-      <c r="C65" s="8"/>
+      <c r="C65" s="8">
+        <v>5</v>
+      </c>
       <c r="D65" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23508.649999999998</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
@@ -2100,19 +2107,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15">
+    <row r="73" spans="1:5" ht="15" hidden="1">
       <c r="A73" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="9">
         <v>3530.8049999999998</v>
       </c>
-      <c r="C73" s="8">
-        <v>3</v>
-      </c>
+      <c r="C73" s="8"/>
       <c r="D73" s="10">
         <f t="shared" si="1"/>
-        <v>10592.414999999999</v>
+        <v>0</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>84</v>
@@ -2196,7 +2201,7 @@
     </row>
     <row r="79" spans="1:5" ht="14.25" hidden="1" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B79" s="9">
         <v>1336.3325</v>
@@ -2231,11 +2236,11 @@
       <c r="B81" s="41"/>
       <c r="C81" s="18">
         <f>SUM(C5:C80)</f>
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="D81" s="19">
         <f>SUM(D5:D80)</f>
-        <v>102503.62000000001</v>
+        <v>263978.22499999998</v>
       </c>
       <c r="E81" s="18"/>
     </row>
@@ -2296,7 +2301,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="23">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="26"/>
@@ -2355,7 +2360,7 @@
       </c>
       <c r="C93" s="24">
         <f>SUBTOTAL(9,C87:C92)</f>
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="26"/>

--- a/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -1003,7 +1003,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H90" sqref="H90"/>
+      <selection pane="bottomRight" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>

--- a/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
   <si>
     <t>Model Name</t>
   </si>
@@ -373,10 +373,16 @@
     <t>Dark_Blue</t>
   </si>
   <si>
-    <t>05.08.19</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold </t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>07.08.19</t>
   </si>
 </sst>
 </file>
@@ -574,7 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,6 +672,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,6 +708,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -997,13 +1009,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:BC95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F87" sqref="F87"/>
+      <selection pane="bottomRight" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1017,26 +1029,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12.75">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="15.75">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="15">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="20" t="s">
         <v>65</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1172,19 +1184,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="9">
         <v>896.23500000000001</v>
       </c>
-      <c r="C12" s="8">
-        <v>80</v>
-      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>71698.8</v>
+        <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>85</v>
@@ -1245,7 +1255,7 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="10">
-        <f>B16*C16</f>
+        <f>C16*B16</f>
         <v>0</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -1332,22 +1342,20 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15">
+    <row r="22" spans="1:5" ht="15" hidden="1">
       <c r="A22" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="9">
         <v>1140.845</v>
       </c>
-      <c r="C22" s="8">
-        <v>40</v>
-      </c>
+      <c r="C22" s="8"/>
       <c r="D22" s="12">
         <f>C22*B22</f>
-        <v>45633.8</v>
+        <v>0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1380,19 +1388,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15">
+    <row r="25" spans="1:5" ht="15" hidden="1">
       <c r="A25" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B25" s="9">
         <v>907.26</v>
       </c>
-      <c r="C25" s="8">
-        <v>40</v>
-      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
-        <v>36290.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>85</v>
@@ -1504,19 +1510,23 @@
       </c>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" ht="15" hidden="1">
+    <row r="33" spans="1:5" ht="15">
       <c r="A33" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="9">
         <v>5607.9849999999997</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="8">
+        <v>7</v>
+      </c>
       <c r="D33" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="8"/>
+        <v>39255.894999999997</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15" hidden="1">
       <c r="A34" s="8" t="s">
@@ -1562,17 +1572,19 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" ht="15" hidden="1">
+    <row r="37" spans="1:5" ht="15">
       <c r="A37" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B37" s="9">
         <v>6369.8850000000002</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="8">
+        <v>7</v>
+      </c>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44589.195</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>84</v>
@@ -1867,11 +1879,11 @@
         <v>5607.9849999999997</v>
       </c>
       <c r="C57" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D57" s="10">
         <f t="shared" si="0"/>
-        <v>28039.924999999999</v>
+        <v>39255.894999999997</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>84</v>
@@ -1935,19 +1947,17 @@
       </c>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:5" ht="15">
+    <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B62" s="9">
         <v>4896.21</v>
       </c>
-      <c r="C62" s="8">
-        <v>5</v>
-      </c>
+      <c r="C62" s="8"/>
       <c r="D62" s="10">
         <f t="shared" si="1"/>
-        <v>24481.05</v>
+        <v>0</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>84</v>
@@ -1980,28 +1990,76 @@
         <v>0</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:55" ht="15" hidden="1">
       <c r="A65" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B65" s="9">
         <v>4701.7299999999996</v>
       </c>
-      <c r="C65" s="8">
-        <v>5</v>
-      </c>
+      <c r="C65" s="8"/>
       <c r="D65" s="10">
         <f t="shared" si="1"/>
-        <v>23508.649999999998</v>
+        <v>0</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" hidden="1">
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="47"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47"/>
+      <c r="X65" s="47"/>
+      <c r="Y65" s="47"/>
+      <c r="Z65" s="47"/>
+      <c r="AA65" s="47"/>
+      <c r="AB65" s="47"/>
+      <c r="AC65" s="47"/>
+      <c r="AD65" s="47"/>
+      <c r="AE65" s="47"/>
+      <c r="AF65" s="47"/>
+      <c r="AG65" s="47"/>
+      <c r="AH65" s="47"/>
+      <c r="AI65" s="47"/>
+      <c r="AJ65" s="47"/>
+      <c r="AK65" s="47"/>
+      <c r="AL65" s="47"/>
+      <c r="AM65" s="47"/>
+      <c r="AN65" s="47"/>
+      <c r="AO65" s="47"/>
+      <c r="AP65" s="47"/>
+      <c r="AQ65" s="47"/>
+      <c r="AR65" s="47"/>
+      <c r="AS65" s="47"/>
+      <c r="AT65" s="47"/>
+      <c r="AU65" s="47"/>
+      <c r="AV65" s="47"/>
+      <c r="AW65" s="47"/>
+      <c r="AX65" s="47"/>
+      <c r="AY65" s="47"/>
+      <c r="AZ65" s="47"/>
+      <c r="BA65" s="47"/>
+      <c r="BB65" s="47"/>
+      <c r="BC65" s="47"/>
+    </row>
+    <row r="66" spans="1:55" ht="15" hidden="1">
       <c r="A66" s="8" t="s">
         <v>50</v>
       </c>
@@ -2015,7 +2073,7 @@
       </c>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="1:5" ht="15" hidden="1">
+    <row r="67" spans="1:55" ht="15" hidden="1">
       <c r="A67" s="8" t="s">
         <v>55</v>
       </c>
@@ -2027,9 +2085,11 @@
         <f>C67*B67</f>
         <v>0</v>
       </c>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" spans="1:5" ht="15" hidden="1">
+      <c r="E67" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:55" ht="15" hidden="1">
       <c r="A68" s="8" t="s">
         <v>10</v>
       </c>
@@ -2043,7 +2103,7 @@
       </c>
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="1:5" ht="15" hidden="1">
+    <row r="69" spans="1:55" ht="15" hidden="1">
       <c r="A69" s="8" t="s">
         <v>42</v>
       </c>
@@ -2059,7 +2119,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" hidden="1">
+    <row r="70" spans="1:55" ht="15" hidden="1">
       <c r="A70" s="8" t="s">
         <v>78</v>
       </c>
@@ -2075,7 +2135,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" hidden="1">
+    <row r="71" spans="1:55" ht="15" hidden="1">
       <c r="A71" s="8" t="s">
         <v>56</v>
       </c>
@@ -2091,7 +2151,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" hidden="1">
+    <row r="72" spans="1:55" ht="15" hidden="1">
       <c r="A72" s="8" t="s">
         <v>39</v>
       </c>
@@ -2107,7 +2167,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" hidden="1">
+    <row r="73" spans="1:55" ht="15" hidden="1">
       <c r="A73" s="8" t="s">
         <v>73</v>
       </c>
@@ -2123,7 +2183,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" hidden="1">
+    <row r="74" spans="1:55" ht="15" hidden="1">
       <c r="A74" s="8" t="s">
         <v>11</v>
       </c>
@@ -2137,7 +2197,7 @@
       </c>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="1:5" ht="15" hidden="1">
+    <row r="75" spans="1:55" ht="15" hidden="1">
       <c r="A75" s="8" t="s">
         <v>40</v>
       </c>
@@ -2151,7 +2211,7 @@
       </c>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="1:5" ht="15" hidden="1">
+    <row r="76" spans="1:55" ht="15" hidden="1">
       <c r="A76" s="8" t="s">
         <v>61</v>
       </c>
@@ -2167,7 +2227,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" hidden="1">
+    <row r="77" spans="1:55" ht="15" hidden="1">
       <c r="A77" s="8" t="s">
         <v>72</v>
       </c>
@@ -2183,7 +2243,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+    <row r="78" spans="1:55" ht="14.25" hidden="1" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>89</v>
       </c>
@@ -2199,7 +2259,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+    <row r="79" spans="1:55" ht="14.25" hidden="1" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>98</v>
       </c>
@@ -2214,8 +2274,58 @@
       <c r="E79" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="15" hidden="1">
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="47"/>
+      <c r="S79" s="47"/>
+      <c r="T79" s="47"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="47"/>
+      <c r="W79" s="47"/>
+      <c r="X79" s="47"/>
+      <c r="Y79" s="47"/>
+      <c r="Z79" s="47"/>
+      <c r="AA79" s="47"/>
+      <c r="AB79" s="47"/>
+      <c r="AC79" s="47"/>
+      <c r="AD79" s="47"/>
+      <c r="AE79" s="47"/>
+      <c r="AF79" s="47"/>
+      <c r="AG79" s="47"/>
+      <c r="AH79" s="47"/>
+      <c r="AI79" s="47"/>
+      <c r="AJ79" s="47"/>
+      <c r="AK79" s="47"/>
+      <c r="AL79" s="47"/>
+      <c r="AM79" s="47"/>
+      <c r="AN79" s="47"/>
+      <c r="AO79" s="47"/>
+      <c r="AP79" s="47"/>
+      <c r="AQ79" s="47"/>
+      <c r="AR79" s="47"/>
+      <c r="AS79" s="47"/>
+      <c r="AT79" s="47"/>
+      <c r="AU79" s="47"/>
+      <c r="AV79" s="47"/>
+      <c r="AW79" s="47"/>
+      <c r="AX79" s="47"/>
+      <c r="AY79" s="47"/>
+      <c r="AZ79" s="47"/>
+      <c r="BA79" s="47"/>
+      <c r="BB79" s="47"/>
+      <c r="BC79" s="47"/>
+    </row>
+    <row r="80" spans="1:55" ht="15" hidden="1">
       <c r="A80" s="8" t="s">
         <v>71</v>
       </c>
@@ -2229,50 +2339,200 @@
       </c>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="1:9" s="2" customFormat="1" ht="15">
-      <c r="A81" s="41" t="s">
+    <row r="81" spans="1:55" s="2" customFormat="1" ht="15">
+      <c r="A81" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="41"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="18">
         <f>SUM(C5:C80)</f>
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="D81" s="19">
         <f>SUM(D5:D80)</f>
-        <v>263978.22499999998</v>
-      </c>
-      <c r="E81" s="18"/>
-    </row>
-    <row r="82" spans="1:9" ht="17.25" customHeight="1">
+        <v>157426.58499999999</v>
+      </c>
+      <c r="E81" s="35"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="48"/>
+      <c r="M81" s="48"/>
+      <c r="N81" s="48"/>
+      <c r="O81" s="48"/>
+      <c r="P81" s="48"/>
+      <c r="Q81" s="48"/>
+      <c r="R81" s="48"/>
+      <c r="S81" s="48"/>
+      <c r="T81" s="48"/>
+      <c r="U81" s="48"/>
+      <c r="V81" s="48"/>
+      <c r="W81" s="48"/>
+      <c r="X81" s="48"/>
+      <c r="Y81" s="48"/>
+      <c r="Z81" s="48"/>
+      <c r="AA81" s="48"/>
+      <c r="AB81" s="48"/>
+      <c r="AC81" s="48"/>
+      <c r="AD81" s="48"/>
+      <c r="AE81" s="48"/>
+      <c r="AF81" s="48"/>
+      <c r="AG81" s="48"/>
+      <c r="AH81" s="48"/>
+      <c r="AI81" s="48"/>
+      <c r="AJ81" s="48"/>
+      <c r="AK81" s="48"/>
+      <c r="AL81" s="48"/>
+      <c r="AM81" s="48"/>
+      <c r="AN81" s="48"/>
+      <c r="AO81" s="48"/>
+      <c r="AP81" s="48"/>
+      <c r="AQ81" s="48"/>
+      <c r="AR81" s="48"/>
+      <c r="AS81" s="48"/>
+      <c r="AT81" s="48"/>
+      <c r="AU81" s="48"/>
+      <c r="AV81" s="48"/>
+      <c r="AW81" s="48"/>
+      <c r="AX81" s="48"/>
+      <c r="AY81" s="48"/>
+      <c r="AZ81" s="48"/>
+      <c r="BA81" s="48"/>
+      <c r="BB81" s="48"/>
+      <c r="BC81" s="48"/>
+    </row>
+    <row r="82" spans="1:55" ht="17.25" customHeight="1">
       <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="47"/>
+      <c r="R82" s="47"/>
+      <c r="S82" s="47"/>
+      <c r="T82" s="47"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="47"/>
+      <c r="W82" s="47"/>
+      <c r="X82" s="47"/>
+      <c r="Y82" s="47"/>
+      <c r="Z82" s="47"/>
+      <c r="AA82" s="47"/>
+      <c r="AB82" s="47"/>
+      <c r="AC82" s="47"/>
+      <c r="AD82" s="47"/>
+      <c r="AE82" s="47"/>
+      <c r="AF82" s="47"/>
+      <c r="AG82" s="47"/>
+      <c r="AH82" s="47"/>
+      <c r="AI82" s="47"/>
+      <c r="AJ82" s="47"/>
+      <c r="AK82" s="47"/>
+      <c r="AL82" s="47"/>
+      <c r="AM82" s="47"/>
+      <c r="AN82" s="47"/>
+      <c r="AO82" s="47"/>
+      <c r="AP82" s="47"/>
+      <c r="AQ82" s="47"/>
+      <c r="AR82" s="47"/>
+      <c r="AS82" s="47"/>
+      <c r="AT82" s="47"/>
+      <c r="AU82" s="47"/>
+      <c r="AV82" s="47"/>
+      <c r="AW82" s="47"/>
+      <c r="AX82" s="47"/>
+      <c r="AY82" s="47"/>
+      <c r="AZ82" s="47"/>
+      <c r="BA82" s="47"/>
+      <c r="BB82" s="47"/>
+      <c r="BC82" s="47"/>
+    </row>
+    <row r="83" spans="1:55" s="16" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
       <c r="E83" s="25"/>
-    </row>
-    <row r="84" spans="1:9" s="16" customFormat="1" ht="17.25" customHeight="1">
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="49"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="49"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="49"/>
+      <c r="P83" s="49"/>
+      <c r="Q83" s="49"/>
+      <c r="R83" s="49"/>
+      <c r="S83" s="49"/>
+      <c r="T83" s="49"/>
+      <c r="U83" s="49"/>
+      <c r="V83" s="49"/>
+      <c r="W83" s="49"/>
+      <c r="X83" s="49"/>
+      <c r="Y83" s="49"/>
+      <c r="Z83" s="49"/>
+      <c r="AA83" s="49"/>
+      <c r="AB83" s="49"/>
+      <c r="AC83" s="49"/>
+      <c r="AD83" s="49"/>
+      <c r="AE83" s="49"/>
+      <c r="AF83" s="49"/>
+      <c r="AG83" s="49"/>
+      <c r="AH83" s="49"/>
+      <c r="AI83" s="49"/>
+      <c r="AJ83" s="49"/>
+      <c r="AK83" s="49"/>
+      <c r="AL83" s="49"/>
+      <c r="AM83" s="49"/>
+      <c r="AN83" s="49"/>
+      <c r="AO83" s="49"/>
+      <c r="AP83" s="49"/>
+      <c r="AQ83" s="49"/>
+      <c r="AR83" s="49"/>
+      <c r="AS83" s="49"/>
+      <c r="AT83" s="49"/>
+      <c r="AU83" s="49"/>
+      <c r="AV83" s="49"/>
+      <c r="AW83" s="49"/>
+      <c r="AX83" s="49"/>
+      <c r="AY83" s="49"/>
+      <c r="AZ83" s="49"/>
+      <c r="BA83" s="49"/>
+      <c r="BB83" s="49"/>
+      <c r="BC83" s="49"/>
+    </row>
+    <row r="84" spans="1:55" s="16" customFormat="1" ht="17.25" customHeight="1">
       <c r="A84" s="30"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
       <c r="E84" s="25"/>
     </row>
-    <row r="85" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="85" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A85" s="31"/>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
       <c r="E85" s="26"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
     </row>
-    <row r="86" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="86" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A86" s="32"/>
       <c r="B86" s="13" t="s">
         <v>19</v>
@@ -2285,8 +2545,11 @@
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="28"/>
-    </row>
-    <row r="87" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G86" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A87" s="33"/>
       <c r="B87" s="8" t="s">
         <v>21</v>
@@ -2295,13 +2558,13 @@
       <c r="D87" s="8"/>
       <c r="E87" s="26"/>
     </row>
-    <row r="88" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="88" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A88" s="33"/>
       <c r="B88" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C88" s="23">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="26"/>
@@ -2310,7 +2573,7 @@
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
     </row>
-    <row r="89" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="89" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A89" s="33"/>
       <c r="B89" s="8" t="s">
         <v>22</v>
@@ -2323,7 +2586,7 @@
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="90" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A90" s="33"/>
       <c r="B90" s="8" t="s">
         <v>23</v>
@@ -2333,7 +2596,7 @@
       <c r="E90" s="26"/>
       <c r="F90" s="28"/>
     </row>
-    <row r="91" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="91" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A91" s="33"/>
       <c r="B91" s="8" t="s">
         <v>24</v>
@@ -2343,7 +2606,7 @@
       <c r="E91" s="26"/>
       <c r="F91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="92" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A92" s="33"/>
       <c r="B92" s="8" t="s">
         <v>25</v>
@@ -2353,27 +2616,27 @@
       <c r="E92" s="26"/>
       <c r="F92" s="28"/>
     </row>
-    <row r="93" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="93" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A93" s="32"/>
       <c r="B93" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C93" s="24">
         <f>SUBTOTAL(9,C87:C92)</f>
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="26"/>
       <c r="F93" s="28"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:55">
       <c r="A94" s="34"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="27"/>
       <c r="F94" s="29"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:55">
       <c r="E95" s="27"/>
     </row>
   </sheetData>

--- a/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t>Model Name</t>
   </si>
@@ -293,21 +293,6 @@
   </si>
   <si>
     <t>B12+</t>
-  </si>
-  <si>
-    <r>
-      <t>Black &amp; Blue/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NOT RED</t>
-    </r>
   </si>
   <si>
     <t>D41</t>
@@ -379,10 +364,22 @@
     <t xml:space="preserve">Gold </t>
   </si>
   <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>07.08.19</t>
+    <r>
+      <t>Black/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT RED</t>
+    </r>
+  </si>
+  <si>
+    <t>08.08.19</t>
   </si>
 </sst>
 </file>
@@ -675,42 +672,42 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -1015,7 +1012,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E88" sqref="E88"/>
+      <selection pane="bottomRight" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1029,26 +1026,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12.75">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="15.75">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="15">
-      <c r="A3" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="46"/>
+      <c r="A3" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="49"/>
       <c r="C3" s="20" t="s">
         <v>65</v>
       </c>
@@ -1056,7 +1053,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1133,23 +1130,25 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" hidden="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="9">
         <v>769.92</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8">
+        <v>120</v>
+      </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92390.399999999994</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" hidden="1">
@@ -1170,7 +1169,7 @@
     </row>
     <row r="11" spans="1:5" ht="15" hidden="1">
       <c r="A11" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="9">
         <v>770.92</v>
@@ -1181,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1230,25 +1229,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" hidden="1">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="9">
         <v>858.14</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8">
+        <v>40</v>
+      </c>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34325.599999999999</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="9">
         <v>824.06</v>
@@ -1262,19 +1263,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A17" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="9">
         <v>858.14</v>
       </c>
-      <c r="C17" s="8">
-        <v>40</v>
-      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>34325.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>85</v>
@@ -1328,7 +1327,7 @@
     </row>
     <row r="21" spans="1:5" ht="15" hidden="1">
       <c r="A21" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="9">
         <v>1159.8900000000001</v>
@@ -1339,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" hidden="1">
@@ -1355,22 +1354,26 @@
         <v>0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A23" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="9">
         <v>936.34</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8">
+        <v>50</v>
+      </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="11"/>
+        <v>46817</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="15" hidden="1">
       <c r="A24" s="8" t="s">
@@ -1388,17 +1391,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" hidden="1">
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="9">
         <v>907.26</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="8">
+        <v>50</v>
+      </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45363</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>85</v>
@@ -1493,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" hidden="1">
@@ -1510,19 +1515,17 @@
       </c>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" ht="15">
+    <row r="33" spans="1:5" ht="15" hidden="1">
       <c r="A33" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="9">
         <v>5607.9849999999997</v>
       </c>
-      <c r="C33" s="8">
-        <v>7</v>
-      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="10">
         <f t="shared" si="0"/>
-        <v>39255.894999999997</v>
+        <v>0</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>84</v>
@@ -1580,11 +1583,11 @@
         <v>6369.8850000000002</v>
       </c>
       <c r="C37" s="8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
-        <v>44589.195</v>
+        <v>95548.275000000009</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>84</v>
@@ -1592,7 +1595,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" hidden="1">
       <c r="A38" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="9">
         <v>6715.95</v>
@@ -1647,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" hidden="1">
@@ -1664,17 +1667,19 @@
       </c>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="1:5" ht="15" hidden="1">
+    <row r="43" spans="1:5" ht="15">
       <c r="A43" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="9">
         <v>1189.9675</v>
       </c>
-      <c r="C43" s="8"/>
+      <c r="C43" s="8">
+        <v>50</v>
+      </c>
       <c r="D43" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59498.375</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>85</v>
@@ -1751,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" hidden="1">
@@ -1810,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
@@ -1879,11 +1884,11 @@
         <v>5607.9849999999997</v>
       </c>
       <c r="C57" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D57" s="10">
         <f t="shared" si="0"/>
-        <v>39255.894999999997</v>
+        <v>28039.924999999999</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>84</v>
@@ -1990,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:55" ht="15" hidden="1">
@@ -2008,56 +2013,56 @@
       <c r="E65" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="47"/>
-      <c r="R65" s="47"/>
-      <c r="S65" s="47"/>
-      <c r="T65" s="47"/>
-      <c r="U65" s="47"/>
-      <c r="V65" s="47"/>
-      <c r="W65" s="47"/>
-      <c r="X65" s="47"/>
-      <c r="Y65" s="47"/>
-      <c r="Z65" s="47"/>
-      <c r="AA65" s="47"/>
-      <c r="AB65" s="47"/>
-      <c r="AC65" s="47"/>
-      <c r="AD65" s="47"/>
-      <c r="AE65" s="47"/>
-      <c r="AF65" s="47"/>
-      <c r="AG65" s="47"/>
-      <c r="AH65" s="47"/>
-      <c r="AI65" s="47"/>
-      <c r="AJ65" s="47"/>
-      <c r="AK65" s="47"/>
-      <c r="AL65" s="47"/>
-      <c r="AM65" s="47"/>
-      <c r="AN65" s="47"/>
-      <c r="AO65" s="47"/>
-      <c r="AP65" s="47"/>
-      <c r="AQ65" s="47"/>
-      <c r="AR65" s="47"/>
-      <c r="AS65" s="47"/>
-      <c r="AT65" s="47"/>
-      <c r="AU65" s="47"/>
-      <c r="AV65" s="47"/>
-      <c r="AW65" s="47"/>
-      <c r="AX65" s="47"/>
-      <c r="AY65" s="47"/>
-      <c r="AZ65" s="47"/>
-      <c r="BA65" s="47"/>
-      <c r="BB65" s="47"/>
-      <c r="BC65" s="47"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="36"/>
+      <c r="U65" s="36"/>
+      <c r="V65" s="36"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="36"/>
+      <c r="Z65" s="36"/>
+      <c r="AA65" s="36"/>
+      <c r="AB65" s="36"/>
+      <c r="AC65" s="36"/>
+      <c r="AD65" s="36"/>
+      <c r="AE65" s="36"/>
+      <c r="AF65" s="36"/>
+      <c r="AG65" s="36"/>
+      <c r="AH65" s="36"/>
+      <c r="AI65" s="36"/>
+      <c r="AJ65" s="36"/>
+      <c r="AK65" s="36"/>
+      <c r="AL65" s="36"/>
+      <c r="AM65" s="36"/>
+      <c r="AN65" s="36"/>
+      <c r="AO65" s="36"/>
+      <c r="AP65" s="36"/>
+      <c r="AQ65" s="36"/>
+      <c r="AR65" s="36"/>
+      <c r="AS65" s="36"/>
+      <c r="AT65" s="36"/>
+      <c r="AU65" s="36"/>
+      <c r="AV65" s="36"/>
+      <c r="AW65" s="36"/>
+      <c r="AX65" s="36"/>
+      <c r="AY65" s="36"/>
+      <c r="AZ65" s="36"/>
+      <c r="BA65" s="36"/>
+      <c r="BB65" s="36"/>
+      <c r="BC65" s="36"/>
     </row>
     <row r="66" spans="1:55" ht="15" hidden="1">
       <c r="A66" s="8" t="s">
@@ -2086,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:55" ht="15" hidden="1">
@@ -2132,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:55" ht="15" hidden="1">
@@ -2261,7 +2266,7 @@
     </row>
     <row r="79" spans="1:55" ht="14.25" hidden="1" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79" s="9">
         <v>1336.3325</v>
@@ -2274,56 +2279,56 @@
       <c r="E79" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="47"/>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="47"/>
-      <c r="S79" s="47"/>
-      <c r="T79" s="47"/>
-      <c r="U79" s="47"/>
-      <c r="V79" s="47"/>
-      <c r="W79" s="47"/>
-      <c r="X79" s="47"/>
-      <c r="Y79" s="47"/>
-      <c r="Z79" s="47"/>
-      <c r="AA79" s="47"/>
-      <c r="AB79" s="47"/>
-      <c r="AC79" s="47"/>
-      <c r="AD79" s="47"/>
-      <c r="AE79" s="47"/>
-      <c r="AF79" s="47"/>
-      <c r="AG79" s="47"/>
-      <c r="AH79" s="47"/>
-      <c r="AI79" s="47"/>
-      <c r="AJ79" s="47"/>
-      <c r="AK79" s="47"/>
-      <c r="AL79" s="47"/>
-      <c r="AM79" s="47"/>
-      <c r="AN79" s="47"/>
-      <c r="AO79" s="47"/>
-      <c r="AP79" s="47"/>
-      <c r="AQ79" s="47"/>
-      <c r="AR79" s="47"/>
-      <c r="AS79" s="47"/>
-      <c r="AT79" s="47"/>
-      <c r="AU79" s="47"/>
-      <c r="AV79" s="47"/>
-      <c r="AW79" s="47"/>
-      <c r="AX79" s="47"/>
-      <c r="AY79" s="47"/>
-      <c r="AZ79" s="47"/>
-      <c r="BA79" s="47"/>
-      <c r="BB79" s="47"/>
-      <c r="BC79" s="47"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="36"/>
+      <c r="U79" s="36"/>
+      <c r="V79" s="36"/>
+      <c r="W79" s="36"/>
+      <c r="X79" s="36"/>
+      <c r="Y79" s="36"/>
+      <c r="Z79" s="36"/>
+      <c r="AA79" s="36"/>
+      <c r="AB79" s="36"/>
+      <c r="AC79" s="36"/>
+      <c r="AD79" s="36"/>
+      <c r="AE79" s="36"/>
+      <c r="AF79" s="36"/>
+      <c r="AG79" s="36"/>
+      <c r="AH79" s="36"/>
+      <c r="AI79" s="36"/>
+      <c r="AJ79" s="36"/>
+      <c r="AK79" s="36"/>
+      <c r="AL79" s="36"/>
+      <c r="AM79" s="36"/>
+      <c r="AN79" s="36"/>
+      <c r="AO79" s="36"/>
+      <c r="AP79" s="36"/>
+      <c r="AQ79" s="36"/>
+      <c r="AR79" s="36"/>
+      <c r="AS79" s="36"/>
+      <c r="AT79" s="36"/>
+      <c r="AU79" s="36"/>
+      <c r="AV79" s="36"/>
+      <c r="AW79" s="36"/>
+      <c r="AX79" s="36"/>
+      <c r="AY79" s="36"/>
+      <c r="AZ79" s="36"/>
+      <c r="BA79" s="36"/>
+      <c r="BB79" s="36"/>
+      <c r="BC79" s="36"/>
     </row>
     <row r="80" spans="1:55" ht="15" hidden="1">
       <c r="A80" s="8" t="s">
@@ -2340,179 +2345,179 @@
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:55" s="2" customFormat="1" ht="15">
-      <c r="A81" s="42" t="s">
+      <c r="A81" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="42"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="18">
         <f>SUM(C5:C80)</f>
-        <v>61</v>
+        <v>330</v>
       </c>
       <c r="D81" s="19">
         <f>SUM(D5:D80)</f>
-        <v>157426.58499999999</v>
+        <v>401982.57500000001</v>
       </c>
       <c r="E81" s="35"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="48"/>
-      <c r="L81" s="48"/>
-      <c r="M81" s="48"/>
-      <c r="N81" s="48"/>
-      <c r="O81" s="48"/>
-      <c r="P81" s="48"/>
-      <c r="Q81" s="48"/>
-      <c r="R81" s="48"/>
-      <c r="S81" s="48"/>
-      <c r="T81" s="48"/>
-      <c r="U81" s="48"/>
-      <c r="V81" s="48"/>
-      <c r="W81" s="48"/>
-      <c r="X81" s="48"/>
-      <c r="Y81" s="48"/>
-      <c r="Z81" s="48"/>
-      <c r="AA81" s="48"/>
-      <c r="AB81" s="48"/>
-      <c r="AC81" s="48"/>
-      <c r="AD81" s="48"/>
-      <c r="AE81" s="48"/>
-      <c r="AF81" s="48"/>
-      <c r="AG81" s="48"/>
-      <c r="AH81" s="48"/>
-      <c r="AI81" s="48"/>
-      <c r="AJ81" s="48"/>
-      <c r="AK81" s="48"/>
-      <c r="AL81" s="48"/>
-      <c r="AM81" s="48"/>
-      <c r="AN81" s="48"/>
-      <c r="AO81" s="48"/>
-      <c r="AP81" s="48"/>
-      <c r="AQ81" s="48"/>
-      <c r="AR81" s="48"/>
-      <c r="AS81" s="48"/>
-      <c r="AT81" s="48"/>
-      <c r="AU81" s="48"/>
-      <c r="AV81" s="48"/>
-      <c r="AW81" s="48"/>
-      <c r="AX81" s="48"/>
-      <c r="AY81" s="48"/>
-      <c r="AZ81" s="48"/>
-      <c r="BA81" s="48"/>
-      <c r="BB81" s="48"/>
-      <c r="BC81" s="48"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="37"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="37"/>
+      <c r="X81" s="37"/>
+      <c r="Y81" s="37"/>
+      <c r="Z81" s="37"/>
+      <c r="AA81" s="37"/>
+      <c r="AB81" s="37"/>
+      <c r="AC81" s="37"/>
+      <c r="AD81" s="37"/>
+      <c r="AE81" s="37"/>
+      <c r="AF81" s="37"/>
+      <c r="AG81" s="37"/>
+      <c r="AH81" s="37"/>
+      <c r="AI81" s="37"/>
+      <c r="AJ81" s="37"/>
+      <c r="AK81" s="37"/>
+      <c r="AL81" s="37"/>
+      <c r="AM81" s="37"/>
+      <c r="AN81" s="37"/>
+      <c r="AO81" s="37"/>
+      <c r="AP81" s="37"/>
+      <c r="AQ81" s="37"/>
+      <c r="AR81" s="37"/>
+      <c r="AS81" s="37"/>
+      <c r="AT81" s="37"/>
+      <c r="AU81" s="37"/>
+      <c r="AV81" s="37"/>
+      <c r="AW81" s="37"/>
+      <c r="AX81" s="37"/>
+      <c r="AY81" s="37"/>
+      <c r="AZ81" s="37"/>
+      <c r="BA81" s="37"/>
+      <c r="BB81" s="37"/>
+      <c r="BC81" s="37"/>
     </row>
     <row r="82" spans="1:55" ht="17.25" customHeight="1">
       <c r="A82" s="3"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="47"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="47"/>
-      <c r="P82" s="47"/>
-      <c r="Q82" s="47"/>
-      <c r="R82" s="47"/>
-      <c r="S82" s="47"/>
-      <c r="T82" s="47"/>
-      <c r="U82" s="47"/>
-      <c r="V82" s="47"/>
-      <c r="W82" s="47"/>
-      <c r="X82" s="47"/>
-      <c r="Y82" s="47"/>
-      <c r="Z82" s="47"/>
-      <c r="AA82" s="47"/>
-      <c r="AB82" s="47"/>
-      <c r="AC82" s="47"/>
-      <c r="AD82" s="47"/>
-      <c r="AE82" s="47"/>
-      <c r="AF82" s="47"/>
-      <c r="AG82" s="47"/>
-      <c r="AH82" s="47"/>
-      <c r="AI82" s="47"/>
-      <c r="AJ82" s="47"/>
-      <c r="AK82" s="47"/>
-      <c r="AL82" s="47"/>
-      <c r="AM82" s="47"/>
-      <c r="AN82" s="47"/>
-      <c r="AO82" s="47"/>
-      <c r="AP82" s="47"/>
-      <c r="AQ82" s="47"/>
-      <c r="AR82" s="47"/>
-      <c r="AS82" s="47"/>
-      <c r="AT82" s="47"/>
-      <c r="AU82" s="47"/>
-      <c r="AV82" s="47"/>
-      <c r="AW82" s="47"/>
-      <c r="AX82" s="47"/>
-      <c r="AY82" s="47"/>
-      <c r="AZ82" s="47"/>
-      <c r="BA82" s="47"/>
-      <c r="BB82" s="47"/>
-      <c r="BC82" s="47"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="36"/>
+      <c r="U82" s="36"/>
+      <c r="V82" s="36"/>
+      <c r="W82" s="36"/>
+      <c r="X82" s="36"/>
+      <c r="Y82" s="36"/>
+      <c r="Z82" s="36"/>
+      <c r="AA82" s="36"/>
+      <c r="AB82" s="36"/>
+      <c r="AC82" s="36"/>
+      <c r="AD82" s="36"/>
+      <c r="AE82" s="36"/>
+      <c r="AF82" s="36"/>
+      <c r="AG82" s="36"/>
+      <c r="AH82" s="36"/>
+      <c r="AI82" s="36"/>
+      <c r="AJ82" s="36"/>
+      <c r="AK82" s="36"/>
+      <c r="AL82" s="36"/>
+      <c r="AM82" s="36"/>
+      <c r="AN82" s="36"/>
+      <c r="AO82" s="36"/>
+      <c r="AP82" s="36"/>
+      <c r="AQ82" s="36"/>
+      <c r="AR82" s="36"/>
+      <c r="AS82" s="36"/>
+      <c r="AT82" s="36"/>
+      <c r="AU82" s="36"/>
+      <c r="AV82" s="36"/>
+      <c r="AW82" s="36"/>
+      <c r="AX82" s="36"/>
+      <c r="AY82" s="36"/>
+      <c r="AZ82" s="36"/>
+      <c r="BA82" s="36"/>
+      <c r="BB82" s="36"/>
+      <c r="BC82" s="36"/>
     </row>
     <row r="83" spans="1:55" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
       <c r="E83" s="25"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49"/>
-      <c r="J83" s="49"/>
-      <c r="K83" s="49"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="49"/>
-      <c r="N83" s="49"/>
-      <c r="O83" s="49"/>
-      <c r="P83" s="49"/>
-      <c r="Q83" s="49"/>
-      <c r="R83" s="49"/>
-      <c r="S83" s="49"/>
-      <c r="T83" s="49"/>
-      <c r="U83" s="49"/>
-      <c r="V83" s="49"/>
-      <c r="W83" s="49"/>
-      <c r="X83" s="49"/>
-      <c r="Y83" s="49"/>
-      <c r="Z83" s="49"/>
-      <c r="AA83" s="49"/>
-      <c r="AB83" s="49"/>
-      <c r="AC83" s="49"/>
-      <c r="AD83" s="49"/>
-      <c r="AE83" s="49"/>
-      <c r="AF83" s="49"/>
-      <c r="AG83" s="49"/>
-      <c r="AH83" s="49"/>
-      <c r="AI83" s="49"/>
-      <c r="AJ83" s="49"/>
-      <c r="AK83" s="49"/>
-      <c r="AL83" s="49"/>
-      <c r="AM83" s="49"/>
-      <c r="AN83" s="49"/>
-      <c r="AO83" s="49"/>
-      <c r="AP83" s="49"/>
-      <c r="AQ83" s="49"/>
-      <c r="AR83" s="49"/>
-      <c r="AS83" s="49"/>
-      <c r="AT83" s="49"/>
-      <c r="AU83" s="49"/>
-      <c r="AV83" s="49"/>
-      <c r="AW83" s="49"/>
-      <c r="AX83" s="49"/>
-      <c r="AY83" s="49"/>
-      <c r="AZ83" s="49"/>
-      <c r="BA83" s="49"/>
-      <c r="BB83" s="49"/>
-      <c r="BC83" s="49"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="38"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="38"/>
+      <c r="X83" s="38"/>
+      <c r="Y83" s="38"/>
+      <c r="Z83" s="38"/>
+      <c r="AA83" s="38"/>
+      <c r="AB83" s="38"/>
+      <c r="AC83" s="38"/>
+      <c r="AD83" s="38"/>
+      <c r="AE83" s="38"/>
+      <c r="AF83" s="38"/>
+      <c r="AG83" s="38"/>
+      <c r="AH83" s="38"/>
+      <c r="AI83" s="38"/>
+      <c r="AJ83" s="38"/>
+      <c r="AK83" s="38"/>
+      <c r="AL83" s="38"/>
+      <c r="AM83" s="38"/>
+      <c r="AN83" s="38"/>
+      <c r="AO83" s="38"/>
+      <c r="AP83" s="38"/>
+      <c r="AQ83" s="38"/>
+      <c r="AR83" s="38"/>
+      <c r="AS83" s="38"/>
+      <c r="AT83" s="38"/>
+      <c r="AU83" s="38"/>
+      <c r="AV83" s="38"/>
+      <c r="AW83" s="38"/>
+      <c r="AX83" s="38"/>
+      <c r="AY83" s="38"/>
+      <c r="AZ83" s="38"/>
+      <c r="BA83" s="38"/>
+      <c r="BB83" s="38"/>
+      <c r="BC83" s="38"/>
     </row>
     <row r="84" spans="1:55" s="16" customFormat="1" ht="17.25" customHeight="1">
       <c r="A84" s="30"/>
@@ -2523,11 +2528,11 @@
     </row>
     <row r="85" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A85" s="31"/>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
       <c r="E85" s="26"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
@@ -2545,9 +2550,6 @@
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="28"/>
-      <c r="G86" s="6" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="87" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A87" s="33"/>
@@ -2564,7 +2566,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="23">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="26"/>
@@ -2623,7 +2625,7 @@
       </c>
       <c r="C93" s="24">
         <f>SUBTOTAL(9,C87:C92)</f>
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="26"/>

--- a/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -1012,7 +1012,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F85" sqref="F85"/>
+      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1362,14 +1362,14 @@
         <v>60</v>
       </c>
       <c r="B23" s="9">
-        <v>936.34</v>
+        <v>878.19</v>
       </c>
       <c r="C23" s="8">
         <v>50</v>
       </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
-        <v>46817</v>
+        <v>43909.5</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>99</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="D81" s="19">
         <f>SUM(D5:D80)</f>
-        <v>401982.57500000001</v>
+        <v>399075.07500000001</v>
       </c>
       <c r="E81" s="35"/>
       <c r="F81" s="37"/>

--- a/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -379,7 +379,7 @@
     </r>
   </si>
   <si>
-    <t>08.08.19</t>
+    <t>18.08.19</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
+      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1141,11 +1141,11 @@
         <v>769.92</v>
       </c>
       <c r="C9" s="8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
-        <v>92390.399999999994</v>
+        <v>76992</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>99</v>
@@ -1229,19 +1229,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5" ht="15" hidden="1">
       <c r="A15" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="9">
         <v>858.14</v>
       </c>
-      <c r="C15" s="8">
-        <v>40</v>
-      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
-        <v>34325.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>107</v>
@@ -1357,19 +1355,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A23" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="9">
         <v>878.19</v>
       </c>
-      <c r="C23" s="8">
-        <v>50</v>
-      </c>
+      <c r="C23" s="8"/>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
-        <v>43909.5</v>
+        <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>99</v>
@@ -1391,19 +1387,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15">
+    <row r="25" spans="1:5" ht="15" hidden="1">
       <c r="A25" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="9">
         <v>907.26</v>
       </c>
-      <c r="C25" s="8">
-        <v>50</v>
-      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
-        <v>45363</v>
+        <v>0</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>85</v>
@@ -1439,17 +1433,19 @@
       </c>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" ht="15" hidden="1">
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="9">
         <v>2710.76</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="8">
+        <v>5</v>
+      </c>
       <c r="D28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13553.800000000001</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>84</v>
@@ -1575,19 +1571,17 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" ht="15">
+    <row r="37" spans="1:5" ht="15" hidden="1">
       <c r="A37" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B37" s="9">
         <v>6369.8850000000002</v>
       </c>
-      <c r="C37" s="8">
-        <v>15</v>
-      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
-        <v>95548.275000000009</v>
+        <v>0</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>84</v>
@@ -1667,19 +1661,17 @@
       </c>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="1:5" ht="15">
+    <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="9">
         <v>1189.9675</v>
       </c>
-      <c r="C43" s="8">
-        <v>50</v>
-      </c>
+      <c r="C43" s="8"/>
       <c r="D43" s="10">
         <f t="shared" si="0"/>
-        <v>59498.375</v>
+        <v>0</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>85</v>
@@ -1876,19 +1868,17 @@
       </c>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="1:5" ht="15">
+    <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="9">
         <v>5607.9849999999997</v>
       </c>
-      <c r="C57" s="8">
-        <v>5</v>
-      </c>
+      <c r="C57" s="8"/>
       <c r="D57" s="10">
         <f t="shared" si="0"/>
-        <v>28039.924999999999</v>
+        <v>0</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>84</v>
@@ -2351,11 +2341,11 @@
       <c r="B81" s="45"/>
       <c r="C81" s="18">
         <f>SUM(C5:C80)</f>
-        <v>330</v>
+        <v>105</v>
       </c>
       <c r="D81" s="19">
         <f>SUM(D5:D80)</f>
-        <v>399075.07500000001</v>
+        <v>90545.8</v>
       </c>
       <c r="E81" s="35"/>
       <c r="F81" s="37"/>
@@ -2566,7 +2556,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="23">
-        <v>400000</v>
+        <v>650000</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="26"/>
@@ -2625,7 +2615,7 @@
       </c>
       <c r="C93" s="24">
         <f>SUBTOTAL(9,C87:C92)</f>
-        <v>400000</v>
+        <v>650000</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="26"/>

--- a/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -379,7 +379,7 @@
     </r>
   </si>
   <si>
-    <t>18.08.19</t>
+    <t>19.08.19</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
+      <selection pane="bottomRight" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1133,19 +1133,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="9">
         <v>769.92</v>
       </c>
-      <c r="C9" s="8">
-        <v>100</v>
-      </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
-        <v>76992</v>
+        <v>0</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>99</v>
@@ -1167,33 +1165,37 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" hidden="1">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B11" s="9">
         <v>770.92</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8">
+        <v>40</v>
+      </c>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30836.799999999999</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="9">
         <v>896.23500000000001</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8">
+        <v>80</v>
+      </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71698.8</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>85</v>
@@ -1261,17 +1263,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A17" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B17" s="9">
         <v>858.14</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8">
+        <v>80</v>
+      </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68651.199999999997</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>85</v>
@@ -1387,17 +1391,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" hidden="1">
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="9">
         <v>907.26</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="8">
+        <v>40</v>
+      </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36290.400000000001</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>85</v>
@@ -1433,19 +1439,17 @@
       </c>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" ht="15">
+    <row r="28" spans="1:5" ht="15" hidden="1">
       <c r="A28" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="9">
         <v>2710.76</v>
       </c>
-      <c r="C28" s="8">
-        <v>5</v>
-      </c>
+      <c r="C28" s="8"/>
       <c r="D28" s="10">
         <f t="shared" si="0"/>
-        <v>13553.800000000001</v>
+        <v>0</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>84</v>
@@ -1735,17 +1739,19 @@
       </c>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:5" ht="15" hidden="1">
+    <row r="48" spans="1:5" ht="15">
       <c r="A48" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="9">
         <v>985.46</v>
       </c>
-      <c r="C48" s="8"/>
+      <c r="C48" s="8">
+        <v>80</v>
+      </c>
       <c r="D48" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78836.800000000003</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>101</v>
@@ -2341,11 +2347,11 @@
       <c r="B81" s="45"/>
       <c r="C81" s="18">
         <f>SUM(C5:C80)</f>
-        <v>105</v>
+        <v>320</v>
       </c>
       <c r="D81" s="19">
         <f>SUM(D5:D80)</f>
-        <v>90545.8</v>
+        <v>286314</v>
       </c>
       <c r="E81" s="35"/>
       <c r="F81" s="37"/>
@@ -2556,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="23">
-        <v>650000</v>
+        <v>300000</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="26"/>
@@ -2615,7 +2621,7 @@
       </c>
       <c r="C93" s="24">
         <f>SUBTOTAL(9,C87:C92)</f>
-        <v>650000</v>
+        <v>300000</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="26"/>

--- a/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -379,7 +379,7 @@
     </r>
   </si>
   <si>
-    <t>19.08.19</t>
+    <t>20.08.19</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E91" sqref="E91"/>
+      <selection pane="bottomRight" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1117,17 +1117,19 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="15" hidden="1">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="9">
         <v>760.9</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8">
+        <v>115</v>
+      </c>
       <c r="D8" s="10">
         <f>C8*B8</f>
-        <v>0</v>
+        <v>87503.5</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>99</v>
@@ -1165,37 +1167,33 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5" ht="15" hidden="1">
       <c r="A11" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B11" s="9">
         <v>770.92</v>
       </c>
-      <c r="C11" s="8">
-        <v>40</v>
-      </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
-        <v>30836.799999999999</v>
+        <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="9">
         <v>896.23500000000001</v>
       </c>
-      <c r="C12" s="8">
-        <v>80</v>
-      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>71698.8</v>
+        <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>85</v>
@@ -1263,19 +1261,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A17" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B17" s="9">
         <v>858.14</v>
       </c>
-      <c r="C17" s="8">
-        <v>80</v>
-      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>68651.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>85</v>
@@ -1327,17 +1323,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" hidden="1">
+    <row r="21" spans="1:5" ht="15">
       <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B21" s="9">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="8">
+        <v>80</v>
+      </c>
       <c r="D21" s="10">
         <f>B21*C21</f>
-        <v>0</v>
+        <v>92791.200000000012</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>94</v>
@@ -1359,17 +1357,19 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A23" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="9">
         <v>878.19</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8">
+        <v>80</v>
+      </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70255.200000000012</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>99</v>
@@ -1391,19 +1391,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15">
+    <row r="25" spans="1:5" ht="15" hidden="1">
       <c r="A25" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="9">
         <v>907.26</v>
       </c>
-      <c r="C25" s="8">
-        <v>40</v>
-      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
-        <v>36290.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>85</v>
@@ -1739,19 +1737,17 @@
       </c>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:5" ht="15">
+    <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="9">
         <v>985.46</v>
       </c>
-      <c r="C48" s="8">
-        <v>80</v>
-      </c>
+      <c r="C48" s="8"/>
       <c r="D48" s="10">
         <f t="shared" si="0"/>
-        <v>78836.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>101</v>
@@ -2120,20 +2116,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:55" ht="15" hidden="1">
+    <row r="70" spans="1:55" ht="15">
       <c r="A70" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B70" s="9">
         <v>3257.1224999999999</v>
       </c>
-      <c r="C70" s="8"/>
+      <c r="C70" s="8">
+        <v>3</v>
+      </c>
       <c r="D70" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9771.3675000000003</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:55" ht="15" hidden="1">
@@ -2347,11 +2345,11 @@
       <c r="B81" s="45"/>
       <c r="C81" s="18">
         <f>SUM(C5:C80)</f>
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="D81" s="19">
         <f>SUM(D5:D80)</f>
-        <v>286314</v>
+        <v>260321.26750000002</v>
       </c>
       <c r="E81" s="35"/>
       <c r="F81" s="37"/>

--- a/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -379,7 +379,7 @@
     </r>
   </si>
   <si>
-    <t>20.08.19</t>
+    <t>21.08.19</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F91" sqref="F91"/>
+      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1125,11 +1125,11 @@
         <v>760.9</v>
       </c>
       <c r="C8" s="8">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10">
         <f>C8*B8</f>
-        <v>87503.5</v>
+        <v>22827</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>99</v>
@@ -1261,17 +1261,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A17" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B17" s="9">
         <v>858.14</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8">
+        <v>80</v>
+      </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68651.199999999997</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>85</v>
@@ -1323,19 +1325,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15">
+    <row r="21" spans="1:5" ht="15" hidden="1">
       <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B21" s="9">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C21" s="8">
-        <v>80</v>
-      </c>
+      <c r="C21" s="8"/>
       <c r="D21" s="10">
         <f>B21*C21</f>
-        <v>92791.200000000012</v>
+        <v>0</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>94</v>
@@ -1357,19 +1357,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A23" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="9">
         <v>878.19</v>
       </c>
-      <c r="C23" s="8">
-        <v>80</v>
-      </c>
+      <c r="C23" s="8"/>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
-        <v>70255.200000000012</v>
+        <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>99</v>
@@ -1391,17 +1389,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" hidden="1">
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="9">
         <v>907.26</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="8">
+        <v>40</v>
+      </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36290.400000000001</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>85</v>
@@ -1573,17 +1573,19 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" ht="15" hidden="1">
+    <row r="37" spans="1:5" ht="15">
       <c r="A37" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B37" s="9">
         <v>6369.8850000000002</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="8">
+        <v>5</v>
+      </c>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31849.425000000003</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>84</v>
@@ -2116,19 +2118,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:55" ht="15">
+    <row r="70" spans="1:55" ht="15" hidden="1">
       <c r="A70" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B70" s="9">
         <v>3257.1224999999999</v>
       </c>
-      <c r="C70" s="8">
-        <v>3</v>
-      </c>
+      <c r="C70" s="8"/>
       <c r="D70" s="10">
         <f t="shared" si="1"/>
-        <v>9771.3675000000003</v>
+        <v>0</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>84</v>
@@ -2345,11 +2345,11 @@
       <c r="B81" s="45"/>
       <c r="C81" s="18">
         <f>SUM(C5:C80)</f>
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="D81" s="19">
         <f>SUM(D5:D80)</f>
-        <v>260321.26750000002</v>
+        <v>159618.02500000002</v>
       </c>
       <c r="E81" s="35"/>
       <c r="F81" s="37"/>
@@ -2560,7 +2560,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="23">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="26"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C93" s="24">
         <f>SUBTOTAL(9,C87:C92)</f>
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="26"/>

--- a/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -379,7 +379,7 @@
     </r>
   </si>
   <si>
-    <t>21.08.19</t>
+    <t>22.08.19</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
+      <selection pane="bottomRight" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1117,19 +1117,17 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="9">
         <v>760.9</v>
       </c>
-      <c r="C8" s="8">
-        <v>30</v>
-      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="10">
         <f>C8*B8</f>
-        <v>22827</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>99</v>
@@ -1261,19 +1259,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A17" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B17" s="9">
         <v>858.14</v>
       </c>
-      <c r="C17" s="8">
-        <v>80</v>
-      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>68651.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>85</v>
@@ -1397,11 +1393,11 @@
         <v>907.26</v>
       </c>
       <c r="C25" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
-        <v>36290.400000000001</v>
+        <v>27217.8</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>85</v>
@@ -1581,11 +1577,11 @@
         <v>6369.8850000000002</v>
       </c>
       <c r="C37" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
-        <v>31849.425000000003</v>
+        <v>38219.31</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>84</v>
@@ -1798,17 +1794,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" hidden="1">
+    <row r="52" spans="1:5" ht="15">
       <c r="A52" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B52" s="9">
         <v>1024.5550000000001</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="8">
+        <v>70</v>
+      </c>
       <c r="D52" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71718.850000000006</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>99</v>
@@ -2345,11 +2343,11 @@
       <c r="B81" s="45"/>
       <c r="C81" s="18">
         <f>SUM(C5:C80)</f>
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="D81" s="19">
         <f>SUM(D5:D80)</f>
-        <v>159618.02500000002</v>
+        <v>137155.96000000002</v>
       </c>
       <c r="E81" s="35"/>
       <c r="F81" s="37"/>
@@ -2560,7 +2558,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="23">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="26"/>
@@ -2619,7 +2617,7 @@
       </c>
       <c r="C93" s="24">
         <f>SUBTOTAL(9,C87:C92)</f>
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="26"/>

--- a/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -379,7 +379,7 @@
     </r>
   </si>
   <si>
-    <t>22.08.19</t>
+    <t>25.08.19</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E89" sqref="E89"/>
+      <selection pane="bottomRight" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1181,17 +1181,19 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="9">
         <v>896.23500000000001</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8">
+        <v>80</v>
+      </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71698.8</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>85</v>
@@ -1243,17 +1245,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" hidden="1">
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="9">
         <v>824.06</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8">
+        <v>60</v>
+      </c>
       <c r="D16" s="10">
         <f>C16*B16</f>
-        <v>0</v>
+        <v>49443.6</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>84</v>
@@ -1369,35 +1373,35 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" hidden="1">
+    <row r="24" spans="1:5" ht="15">
       <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B24" s="9">
         <v>1014.53</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="8">
+        <v>40</v>
+      </c>
       <c r="D24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40581.199999999997</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15">
+    <row r="25" spans="1:5" ht="15" hidden="1">
       <c r="A25" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="9">
         <v>907.26</v>
       </c>
-      <c r="C25" s="8">
-        <v>30</v>
-      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
-        <v>27217.8</v>
+        <v>0</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>85</v>
@@ -1577,11 +1581,11 @@
         <v>6369.8850000000002</v>
       </c>
       <c r="C37" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
-        <v>38219.31</v>
+        <v>31849.425000000003</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>84</v>
@@ -1794,19 +1798,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15">
+    <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B52" s="9">
         <v>1024.5550000000001</v>
       </c>
-      <c r="C52" s="8">
-        <v>70</v>
-      </c>
+      <c r="C52" s="8"/>
       <c r="D52" s="10">
         <f t="shared" si="0"/>
-        <v>71718.850000000006</v>
+        <v>0</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>99</v>
@@ -2343,11 +2345,11 @@
       <c r="B81" s="45"/>
       <c r="C81" s="18">
         <f>SUM(C5:C80)</f>
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="D81" s="19">
         <f>SUM(D5:D80)</f>
-        <v>137155.96000000002</v>
+        <v>193573.02499999997</v>
       </c>
       <c r="E81" s="35"/>
       <c r="F81" s="37"/>
@@ -2558,7 +2560,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="23">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="26"/>
@@ -2617,7 +2619,7 @@
       </c>
       <c r="C93" s="24">
         <f>SUBTOTAL(9,C87:C92)</f>
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="26"/>

--- a/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -1012,7 +1012,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G91" sqref="G91"/>
+      <selection pane="bottomRight" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -2560,7 +2560,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="23">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="26"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C93" s="24">
         <f>SUBTOTAL(9,C87:C92)</f>
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="26"/>

--- a/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
+++ b/August/Others/Requisition of Tulip-2/Requisition of Tulip-2.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$82</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
   <si>
     <t>Model Name</t>
   </si>
@@ -334,21 +334,6 @@
     <t>Dealer Name:   Tulip-2</t>
   </si>
   <si>
-    <r>
-      <t>Black/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Not_Red</t>
-    </r>
-  </si>
-  <si>
     <t>B65</t>
   </si>
   <si>
@@ -379,7 +364,10 @@
     </r>
   </si>
   <si>
-    <t>25.08.19</t>
+    <t>26.08.19</t>
+  </si>
+  <si>
+    <t>D54j</t>
   </si>
 </sst>
 </file>
@@ -1006,13 +994,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:BC95"/>
+  <dimension ref="A1:BC96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F87" sqref="F87"/>
+      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1053,7 +1041,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1098,7 +1086,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10">
-        <f t="shared" ref="D6:D57" si="0">C6*B6</f>
+        <f t="shared" ref="D6:D58" si="0">C6*B6</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
@@ -1133,20 +1121,22 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" hidden="1">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="9">
         <v>769.92</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8">
+        <v>40</v>
+      </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30796.799999999999</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" hidden="1">
@@ -1167,7 +1157,7 @@
     </row>
     <row r="11" spans="1:5" ht="15" hidden="1">
       <c r="A11" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="9">
         <v>770.92</v>
@@ -1178,22 +1168,20 @@
         <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="9">
         <v>896.23500000000001</v>
       </c>
-      <c r="C12" s="8">
-        <v>80</v>
-      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>71698.8</v>
+        <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>85</v>
@@ -1242,22 +1230,20 @@
         <v>0</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="9">
         <v>824.06</v>
       </c>
-      <c r="C16" s="8">
-        <v>60</v>
-      </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="10">
         <f>C16*B16</f>
-        <v>49443.6</v>
+        <v>0</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>84</v>
@@ -1334,7 +1320,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="10">
-        <f>B21*C21</f>
+        <f>C21*B21</f>
         <v>0</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -1354,49 +1340,49 @@
         <v>0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A23" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1238.0875000000001</v>
+      </c>
+      <c r="C23" s="8">
+        <v>40</v>
+      </c>
+      <c r="D23" s="12">
+        <f>C23*B23</f>
+        <v>49523.5</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A24" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B24" s="9">
         <v>878.19</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="9">
-        <v>1014.53</v>
-      </c>
-      <c r="C24" s="8">
-        <v>40</v>
-      </c>
-      <c r="D24" s="10">
-        <f t="shared" si="0"/>
-        <v>40581.199999999997</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" hidden="1">
       <c r="A25" s="8" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B25" s="9">
-        <v>907.26</v>
+        <v>1014.53</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="10">
@@ -1404,91 +1390,93 @@
         <v>0</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="9">
+        <v>907.26</v>
+      </c>
+      <c r="C26" s="8">
+        <v>40</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
+        <v>36290.400000000001</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A26" s="11" t="s">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B27" s="9">
         <v>1159.8924999999999</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" hidden="1">
-      <c r="A27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="9">
-        <v>2309.7600000000002</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" ht="15" hidden="1">
       <c r="A28" s="8" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B28" s="9">
-        <v>2710.76</v>
+        <v>2309.7600000000002</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1">
       <c r="A29" s="8" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B29" s="9">
-        <v>6397.96</v>
+        <v>2710.76</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1">
       <c r="A30" s="8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B30" s="9">
-        <v>5158.8649999999998</v>
+        <v>6397.96</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" ht="15" hidden="1">
       <c r="A31" s="8" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B31" s="9">
-        <v>5334.3029999999999</v>
+        <v>5158.8649999999998</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="10">
@@ -1496,45 +1484,45 @@
         <v>0</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" hidden="1">
       <c r="A32" s="8" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B32" s="9">
-        <v>5819.5124999999998</v>
+        <v>5334.3029999999999</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1">
       <c r="A33" s="8" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B33" s="9">
-        <v>5607.9849999999997</v>
+        <v>5819.5124999999998</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" ht="15" hidden="1">
       <c r="A34" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B34" s="9">
-        <v>5793.4475000000002</v>
+        <v>5607.9849999999997</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="10">
@@ -1547,160 +1535,160 @@
     </row>
     <row r="35" spans="1:5" ht="15" hidden="1">
       <c r="A35" s="8" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B35" s="9">
-        <v>7714.2375000000002</v>
+        <v>5793.4475000000002</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15" hidden="1">
       <c r="A36" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B36" s="9">
-        <v>7722.2574999999997</v>
+        <v>7714.2375000000002</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" ht="15">
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" hidden="1">
       <c r="A37" s="8" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B37" s="9">
-        <v>6369.8850000000002</v>
-      </c>
-      <c r="C37" s="8">
-        <v>5</v>
-      </c>
+        <v>7722.2574999999997</v>
+      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
-        <v>31849.425000000003</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" ht="15" hidden="1">
       <c r="A38" s="8" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B38" s="9">
-        <v>6715.95</v>
+        <v>6369.8850000000002</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="15" hidden="1">
       <c r="A39" s="8" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B39" s="9">
-        <v>8967.36</v>
+        <v>6715.95</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" ht="15" hidden="1">
       <c r="A40" s="8" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B40" s="9">
-        <v>8134.2849999999999</v>
+        <v>8967.36</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="15" hidden="1">
       <c r="A41" s="8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B41" s="9">
-        <v>1169.9175</v>
+        <v>8134.2849999999999</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="10">
-        <f>C41*B41</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>95</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" ht="15" hidden="1">
       <c r="A42" s="8" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B42" s="9">
-        <v>1199.9925000000001</v>
+        <v>1169.9175</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="8"/>
+        <f>C42*B42</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="8" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B43" s="9">
-        <v>1189.9675</v>
+        <v>1199.9925000000001</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
       <c r="A44" s="8" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B44" s="9">
-        <v>1423.55</v>
+        <v>1189.9675</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
       <c r="A45" s="8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B45" s="9">
-        <v>1435.58</v>
+        <v>1423.55</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="10">
@@ -1711,61 +1699,61 @@
     </row>
     <row r="46" spans="1:5" ht="15" hidden="1">
       <c r="A46" s="8" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B46" s="9">
-        <v>1053.6275000000001</v>
+        <v>1435.58</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B47" s="9">
-        <v>1072.675</v>
+        <v>1053.6275000000001</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="9">
-        <v>985.46</v>
+        <v>1072.675</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" hidden="1">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" ht="15">
       <c r="A49" s="8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B49" s="9">
-        <v>1014.53</v>
-      </c>
-      <c r="C49" s="8"/>
+        <v>985.46</v>
+      </c>
+      <c r="C49" s="8">
+        <v>70</v>
+      </c>
       <c r="D49" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68982.2</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>85</v>
@@ -1773,97 +1761,99 @@
     </row>
     <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="8" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B50" s="9">
-        <v>1072.675</v>
+        <v>1014.53</v>
       </c>
       <c r="C50" s="8"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="8"/>
+      <c r="D50" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B51" s="9">
-        <v>1077.6875</v>
+        <v>1072.675</v>
       </c>
       <c r="C51" s="8"/>
-      <c r="D51" s="10">
-        <f>B51*C51</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="8" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B52" s="9">
-        <v>1024.5550000000001</v>
+        <v>1077.6875</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="10">
-        <f t="shared" si="0"/>
+        <f>B52*C52</f>
         <v>0</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="8" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B53" s="9">
-        <v>1101.7474999999999</v>
+        <v>1024.5550000000001</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E53" s="8"/>
+      <c r="E53" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="8" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B54" s="9">
-        <v>1072.675</v>
+        <v>1101.7474999999999</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
       <c r="A55" s="8" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B55" s="9">
-        <v>1297.2349999999999</v>
+        <v>1072.675</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="8" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B56" s="9">
-        <v>11964.8375</v>
+        <v>1297.2349999999999</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="10">
@@ -1874,130 +1864,130 @@
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="8" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B57" s="9">
-        <v>5607.9849999999997</v>
+        <v>11964.8375</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1">
       <c r="A58" s="8" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B58" s="9">
-        <v>5183.9274999999998</v>
+        <v>5607.9849999999997</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="10">
-        <f t="shared" ref="D58:D80" si="1">C58*B58</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="8"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15" hidden="1">
       <c r="A59" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" s="9">
-        <v>5455.6049999999996</v>
+        <v>5183.9274999999998</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D59:D81" si="1">C59*B59</f>
         <v>0</v>
       </c>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" ht="15" hidden="1">
       <c r="A60" s="8" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B60" s="9">
-        <v>4526.2875000000004</v>
+        <v>5455.6049999999996</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1">
       <c r="A61" s="8" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B61" s="9">
-        <v>5510.7425000000003</v>
+        <v>4526.2875000000004</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="8" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B62" s="9">
-        <v>4896.21</v>
+        <v>5510.7425000000003</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E62" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" hidden="1">
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" ht="15">
       <c r="A63" s="8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B63" s="9">
-        <v>5150.8450000000003</v>
-      </c>
-      <c r="C63" s="8"/>
+        <v>4896.21</v>
+      </c>
+      <c r="C63" s="8">
+        <v>5</v>
+      </c>
       <c r="D63" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="8"/>
+        <v>24481.05</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B64" s="9">
-        <v>4973.4025000000001</v>
+        <v>5150.8450000000003</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E64" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:55" ht="15" hidden="1">
       <c r="A65" s="8" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B65" s="9">
-        <v>4701.7299999999996</v>
+        <v>4973.4025000000001</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="10">
@@ -2005,125 +1995,125 @@
         <v>0</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
-      <c r="V65" s="36"/>
-      <c r="W65" s="36"/>
-      <c r="X65" s="36"/>
-      <c r="Y65" s="36"/>
-      <c r="Z65" s="36"/>
-      <c r="AA65" s="36"/>
-      <c r="AB65" s="36"/>
-      <c r="AC65" s="36"/>
-      <c r="AD65" s="36"/>
-      <c r="AE65" s="36"/>
-      <c r="AF65" s="36"/>
-      <c r="AG65" s="36"/>
-      <c r="AH65" s="36"/>
-      <c r="AI65" s="36"/>
-      <c r="AJ65" s="36"/>
-      <c r="AK65" s="36"/>
-      <c r="AL65" s="36"/>
-      <c r="AM65" s="36"/>
-      <c r="AN65" s="36"/>
-      <c r="AO65" s="36"/>
-      <c r="AP65" s="36"/>
-      <c r="AQ65" s="36"/>
-      <c r="AR65" s="36"/>
-      <c r="AS65" s="36"/>
-      <c r="AT65" s="36"/>
-      <c r="AU65" s="36"/>
-      <c r="AV65" s="36"/>
-      <c r="AW65" s="36"/>
-      <c r="AX65" s="36"/>
-      <c r="AY65" s="36"/>
-      <c r="AZ65" s="36"/>
-      <c r="BA65" s="36"/>
-      <c r="BB65" s="36"/>
-      <c r="BC65" s="36"/>
+        <v>94</v>
+      </c>
     </row>
     <row r="66" spans="1:55" ht="15" hidden="1">
       <c r="A66" s="8" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B66" s="9">
-        <v>5940.8149999999996</v>
+        <v>4701.7299999999996</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="10">
-        <f>C66*B66</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="8"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="36"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="36"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="36"/>
+      <c r="Z66" s="36"/>
+      <c r="AA66" s="36"/>
+      <c r="AB66" s="36"/>
+      <c r="AC66" s="36"/>
+      <c r="AD66" s="36"/>
+      <c r="AE66" s="36"/>
+      <c r="AF66" s="36"/>
+      <c r="AG66" s="36"/>
+      <c r="AH66" s="36"/>
+      <c r="AI66" s="36"/>
+      <c r="AJ66" s="36"/>
+      <c r="AK66" s="36"/>
+      <c r="AL66" s="36"/>
+      <c r="AM66" s="36"/>
+      <c r="AN66" s="36"/>
+      <c r="AO66" s="36"/>
+      <c r="AP66" s="36"/>
+      <c r="AQ66" s="36"/>
+      <c r="AR66" s="36"/>
+      <c r="AS66" s="36"/>
+      <c r="AT66" s="36"/>
+      <c r="AU66" s="36"/>
+      <c r="AV66" s="36"/>
+      <c r="AW66" s="36"/>
+      <c r="AX66" s="36"/>
+      <c r="AY66" s="36"/>
+      <c r="AZ66" s="36"/>
+      <c r="BA66" s="36"/>
+      <c r="BB66" s="36"/>
+      <c r="BC66" s="36"/>
     </row>
     <row r="67" spans="1:55" ht="15" hidden="1">
       <c r="A67" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B67" s="9">
-        <v>5257.11</v>
+        <v>5940.8149999999996</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="10">
         <f>C67*B67</f>
         <v>0</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:55" ht="15" hidden="1">
       <c r="A68" s="8" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B68" s="9">
-        <v>3556.87</v>
+        <v>5257.11</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="8"/>
+        <f>C68*B68</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="69" spans="1:55" ht="15" hidden="1">
       <c r="A69" s="8" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B69" s="9">
-        <v>3471.6574999999998</v>
+        <v>3556.87</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:55" ht="15" hidden="1">
       <c r="A70" s="8" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B70" s="9">
-        <v>3257.1224999999999</v>
+        <v>3471.6574999999998</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="10">
@@ -2131,15 +2121,15 @@
         <v>0</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:55" ht="15" hidden="1">
       <c r="A71" s="8" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B71" s="9">
-        <v>4389.9475000000002</v>
+        <v>3257.1224999999999</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="10">
@@ -2152,10 +2142,10 @@
     </row>
     <row r="72" spans="1:55" ht="15" hidden="1">
       <c r="A72" s="8" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B72" s="9">
-        <v>3618.0225</v>
+        <v>4389.9475000000002</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="10">
@@ -2163,15 +2153,15 @@
         <v>0</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:55" ht="15" hidden="1">
       <c r="A73" s="8" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B73" s="9">
-        <v>3530.8049999999998</v>
+        <v>3618.0225</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="10">
@@ -2179,29 +2169,31 @@
         <v>0</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:55" ht="15" hidden="1">
       <c r="A74" s="8" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B74" s="9">
-        <v>4507.24</v>
+        <v>3530.8049999999998</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E74" s="8"/>
+      <c r="E74" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="75" spans="1:55" ht="15" hidden="1">
       <c r="A75" s="8" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B75" s="9">
-        <v>4408.9949999999999</v>
+        <v>4507.24</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="10">
@@ -2212,26 +2204,24 @@
     </row>
     <row r="76" spans="1:55" ht="15" hidden="1">
       <c r="A76" s="8" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B76" s="9">
-        <v>3979.9250000000002</v>
+        <v>4408.9949999999999</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E76" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:55" ht="15" hidden="1">
       <c r="A77" s="8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B77" s="9">
-        <v>4115.2624999999998</v>
+        <v>3979.9250000000002</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="10">
@@ -2242,28 +2232,28 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:55" ht="14.25" hidden="1" customHeight="1">
+    <row r="78" spans="1:55" ht="15" hidden="1">
       <c r="A78" s="8" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B78" s="9">
-        <v>1219.04</v>
+        <v>4115.2624999999998</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="10">
-        <f>B78*C78</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:55" ht="14.25" hidden="1" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B79" s="9">
-        <v>1336.3325</v>
+        <v>1219.04</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="10">
@@ -2273,308 +2263,311 @@
       <c r="E79" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="36"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
-      <c r="V79" s="36"/>
-      <c r="W79" s="36"/>
-      <c r="X79" s="36"/>
-      <c r="Y79" s="36"/>
-      <c r="Z79" s="36"/>
-      <c r="AA79" s="36"/>
-      <c r="AB79" s="36"/>
-      <c r="AC79" s="36"/>
-      <c r="AD79" s="36"/>
-      <c r="AE79" s="36"/>
-      <c r="AF79" s="36"/>
-      <c r="AG79" s="36"/>
-      <c r="AH79" s="36"/>
-      <c r="AI79" s="36"/>
-      <c r="AJ79" s="36"/>
-      <c r="AK79" s="36"/>
-      <c r="AL79" s="36"/>
-      <c r="AM79" s="36"/>
-      <c r="AN79" s="36"/>
-      <c r="AO79" s="36"/>
-      <c r="AP79" s="36"/>
-      <c r="AQ79" s="36"/>
-      <c r="AR79" s="36"/>
-      <c r="AS79" s="36"/>
-      <c r="AT79" s="36"/>
-      <c r="AU79" s="36"/>
-      <c r="AV79" s="36"/>
-      <c r="AW79" s="36"/>
-      <c r="AX79" s="36"/>
-      <c r="AY79" s="36"/>
-      <c r="AZ79" s="36"/>
-      <c r="BA79" s="36"/>
-      <c r="BB79" s="36"/>
-      <c r="BC79" s="36"/>
-    </row>
-    <row r="80" spans="1:55" ht="15" hidden="1">
+    </row>
+    <row r="80" spans="1:55" ht="14.25" hidden="1" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B80" s="9">
-        <v>8599.4449999999997</v>
+        <v>1336.3325</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="10">
+        <f>B80*C80</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="36"/>
+      <c r="U80" s="36"/>
+      <c r="V80" s="36"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="36"/>
+      <c r="Y80" s="36"/>
+      <c r="Z80" s="36"/>
+      <c r="AA80" s="36"/>
+      <c r="AB80" s="36"/>
+      <c r="AC80" s="36"/>
+      <c r="AD80" s="36"/>
+      <c r="AE80" s="36"/>
+      <c r="AF80" s="36"/>
+      <c r="AG80" s="36"/>
+      <c r="AH80" s="36"/>
+      <c r="AI80" s="36"/>
+      <c r="AJ80" s="36"/>
+      <c r="AK80" s="36"/>
+      <c r="AL80" s="36"/>
+      <c r="AM80" s="36"/>
+      <c r="AN80" s="36"/>
+      <c r="AO80" s="36"/>
+      <c r="AP80" s="36"/>
+      <c r="AQ80" s="36"/>
+      <c r="AR80" s="36"/>
+      <c r="AS80" s="36"/>
+      <c r="AT80" s="36"/>
+      <c r="AU80" s="36"/>
+      <c r="AV80" s="36"/>
+      <c r="AW80" s="36"/>
+      <c r="AX80" s="36"/>
+      <c r="AY80" s="36"/>
+      <c r="AZ80" s="36"/>
+      <c r="BA80" s="36"/>
+      <c r="BB80" s="36"/>
+      <c r="BC80" s="36"/>
+    </row>
+    <row r="81" spans="1:55" ht="15" hidden="1">
+      <c r="A81" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="9">
+        <v>8599.4449999999997</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" spans="1:55" s="2" customFormat="1" ht="15">
-      <c r="A81" s="45" t="s">
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="1:55" s="2" customFormat="1" ht="15">
+      <c r="A82" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="45"/>
-      <c r="C81" s="18">
-        <f>SUM(C5:C80)</f>
-        <v>185</v>
-      </c>
-      <c r="D81" s="19">
-        <f>SUM(D5:D80)</f>
-        <v>193573.02499999997</v>
-      </c>
-      <c r="E81" s="35"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="37"/>
-      <c r="W81" s="37"/>
-      <c r="X81" s="37"/>
-      <c r="Y81" s="37"/>
-      <c r="Z81" s="37"/>
-      <c r="AA81" s="37"/>
-      <c r="AB81" s="37"/>
-      <c r="AC81" s="37"/>
-      <c r="AD81" s="37"/>
-      <c r="AE81" s="37"/>
-      <c r="AF81" s="37"/>
-      <c r="AG81" s="37"/>
-      <c r="AH81" s="37"/>
-      <c r="AI81" s="37"/>
-      <c r="AJ81" s="37"/>
-      <c r="AK81" s="37"/>
-      <c r="AL81" s="37"/>
-      <c r="AM81" s="37"/>
-      <c r="AN81" s="37"/>
-      <c r="AO81" s="37"/>
-      <c r="AP81" s="37"/>
-      <c r="AQ81" s="37"/>
-      <c r="AR81" s="37"/>
-      <c r="AS81" s="37"/>
-      <c r="AT81" s="37"/>
-      <c r="AU81" s="37"/>
-      <c r="AV81" s="37"/>
-      <c r="AW81" s="37"/>
-      <c r="AX81" s="37"/>
-      <c r="AY81" s="37"/>
-      <c r="AZ81" s="37"/>
-      <c r="BA81" s="37"/>
-      <c r="BB81" s="37"/>
-      <c r="BC81" s="37"/>
-    </row>
-    <row r="82" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A82" s="3"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="36"/>
-      <c r="U82" s="36"/>
-      <c r="V82" s="36"/>
-      <c r="W82" s="36"/>
-      <c r="X82" s="36"/>
-      <c r="Y82" s="36"/>
-      <c r="Z82" s="36"/>
-      <c r="AA82" s="36"/>
-      <c r="AB82" s="36"/>
-      <c r="AC82" s="36"/>
-      <c r="AD82" s="36"/>
-      <c r="AE82" s="36"/>
-      <c r="AF82" s="36"/>
-      <c r="AG82" s="36"/>
-      <c r="AH82" s="36"/>
-      <c r="AI82" s="36"/>
-      <c r="AJ82" s="36"/>
-      <c r="AK82" s="36"/>
-      <c r="AL82" s="36"/>
-      <c r="AM82" s="36"/>
-      <c r="AN82" s="36"/>
-      <c r="AO82" s="36"/>
-      <c r="AP82" s="36"/>
-      <c r="AQ82" s="36"/>
-      <c r="AR82" s="36"/>
-      <c r="AS82" s="36"/>
-      <c r="AT82" s="36"/>
-      <c r="AU82" s="36"/>
-      <c r="AV82" s="36"/>
-      <c r="AW82" s="36"/>
-      <c r="AX82" s="36"/>
-      <c r="AY82" s="36"/>
-      <c r="AZ82" s="36"/>
-      <c r="BA82" s="36"/>
-      <c r="BB82" s="36"/>
-      <c r="BC82" s="36"/>
-    </row>
-    <row r="83" spans="1:55" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="38"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="38"/>
-      <c r="O83" s="38"/>
-      <c r="P83" s="38"/>
-      <c r="Q83" s="38"/>
-      <c r="R83" s="38"/>
-      <c r="S83" s="38"/>
-      <c r="T83" s="38"/>
-      <c r="U83" s="38"/>
-      <c r="V83" s="38"/>
-      <c r="W83" s="38"/>
-      <c r="X83" s="38"/>
-      <c r="Y83" s="38"/>
-      <c r="Z83" s="38"/>
-      <c r="AA83" s="38"/>
-      <c r="AB83" s="38"/>
-      <c r="AC83" s="38"/>
-      <c r="AD83" s="38"/>
-      <c r="AE83" s="38"/>
-      <c r="AF83" s="38"/>
-      <c r="AG83" s="38"/>
-      <c r="AH83" s="38"/>
-      <c r="AI83" s="38"/>
-      <c r="AJ83" s="38"/>
-      <c r="AK83" s="38"/>
-      <c r="AL83" s="38"/>
-      <c r="AM83" s="38"/>
-      <c r="AN83" s="38"/>
-      <c r="AO83" s="38"/>
-      <c r="AP83" s="38"/>
-      <c r="AQ83" s="38"/>
-      <c r="AR83" s="38"/>
-      <c r="AS83" s="38"/>
-      <c r="AT83" s="38"/>
-      <c r="AU83" s="38"/>
-      <c r="AV83" s="38"/>
-      <c r="AW83" s="38"/>
-      <c r="AX83" s="38"/>
-      <c r="AY83" s="38"/>
-      <c r="AZ83" s="38"/>
-      <c r="BA83" s="38"/>
-      <c r="BB83" s="38"/>
-      <c r="BC83" s="38"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="18">
+        <f>SUM(C5:C81)</f>
+        <v>195</v>
+      </c>
+      <c r="D82" s="19">
+        <f>SUM(D5:D81)</f>
+        <v>210073.95</v>
+      </c>
+      <c r="E82" s="35"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="37"/>
+      <c r="S82" s="37"/>
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="37"/>
+      <c r="Y82" s="37"/>
+      <c r="Z82" s="37"/>
+      <c r="AA82" s="37"/>
+      <c r="AB82" s="37"/>
+      <c r="AC82" s="37"/>
+      <c r="AD82" s="37"/>
+      <c r="AE82" s="37"/>
+      <c r="AF82" s="37"/>
+      <c r="AG82" s="37"/>
+      <c r="AH82" s="37"/>
+      <c r="AI82" s="37"/>
+      <c r="AJ82" s="37"/>
+      <c r="AK82" s="37"/>
+      <c r="AL82" s="37"/>
+      <c r="AM82" s="37"/>
+      <c r="AN82" s="37"/>
+      <c r="AO82" s="37"/>
+      <c r="AP82" s="37"/>
+      <c r="AQ82" s="37"/>
+      <c r="AR82" s="37"/>
+      <c r="AS82" s="37"/>
+      <c r="AT82" s="37"/>
+      <c r="AU82" s="37"/>
+      <c r="AV82" s="37"/>
+      <c r="AW82" s="37"/>
+      <c r="AX82" s="37"/>
+      <c r="AY82" s="37"/>
+      <c r="AZ82" s="37"/>
+      <c r="BA82" s="37"/>
+      <c r="BB82" s="37"/>
+      <c r="BC82" s="37"/>
+    </row>
+    <row r="83" spans="1:55" ht="17.25" customHeight="1">
+      <c r="A83" s="3"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="36"/>
+      <c r="V83" s="36"/>
+      <c r="W83" s="36"/>
+      <c r="X83" s="36"/>
+      <c r="Y83" s="36"/>
+      <c r="Z83" s="36"/>
+      <c r="AA83" s="36"/>
+      <c r="AB83" s="36"/>
+      <c r="AC83" s="36"/>
+      <c r="AD83" s="36"/>
+      <c r="AE83" s="36"/>
+      <c r="AF83" s="36"/>
+      <c r="AG83" s="36"/>
+      <c r="AH83" s="36"/>
+      <c r="AI83" s="36"/>
+      <c r="AJ83" s="36"/>
+      <c r="AK83" s="36"/>
+      <c r="AL83" s="36"/>
+      <c r="AM83" s="36"/>
+      <c r="AN83" s="36"/>
+      <c r="AO83" s="36"/>
+      <c r="AP83" s="36"/>
+      <c r="AQ83" s="36"/>
+      <c r="AR83" s="36"/>
+      <c r="AS83" s="36"/>
+      <c r="AT83" s="36"/>
+      <c r="AU83" s="36"/>
+      <c r="AV83" s="36"/>
+      <c r="AW83" s="36"/>
+      <c r="AX83" s="36"/>
+      <c r="AY83" s="36"/>
+      <c r="AZ83" s="36"/>
+      <c r="BA83" s="36"/>
+      <c r="BB83" s="36"/>
+      <c r="BC83" s="36"/>
     </row>
     <row r="84" spans="1:55" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A84" s="30"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
       <c r="E84" s="25"/>
-    </row>
-    <row r="85" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A85" s="31"/>
-      <c r="B85" s="46" t="s">
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="38"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="38"/>
+      <c r="X84" s="38"/>
+      <c r="Y84" s="38"/>
+      <c r="Z84" s="38"/>
+      <c r="AA84" s="38"/>
+      <c r="AB84" s="38"/>
+      <c r="AC84" s="38"/>
+      <c r="AD84" s="38"/>
+      <c r="AE84" s="38"/>
+      <c r="AF84" s="38"/>
+      <c r="AG84" s="38"/>
+      <c r="AH84" s="38"/>
+      <c r="AI84" s="38"/>
+      <c r="AJ84" s="38"/>
+      <c r="AK84" s="38"/>
+      <c r="AL84" s="38"/>
+      <c r="AM84" s="38"/>
+      <c r="AN84" s="38"/>
+      <c r="AO84" s="38"/>
+      <c r="AP84" s="38"/>
+      <c r="AQ84" s="38"/>
+      <c r="AR84" s="38"/>
+      <c r="AS84" s="38"/>
+      <c r="AT84" s="38"/>
+      <c r="AU84" s="38"/>
+      <c r="AV84" s="38"/>
+      <c r="AW84" s="38"/>
+      <c r="AX84" s="38"/>
+      <c r="AY84" s="38"/>
+      <c r="AZ84" s="38"/>
+      <c r="BA84" s="38"/>
+      <c r="BB84" s="38"/>
+      <c r="BC84" s="38"/>
+    </row>
+    <row r="85" spans="1:55" s="16" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A85" s="30"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="25"/>
+    </row>
+    <row r="86" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A86" s="31"/>
+      <c r="B86" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="46"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="26"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-    </row>
-    <row r="86" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A86" s="32"/>
-      <c r="B86" s="13" t="s">
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="26"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A87" s="32"/>
+      <c r="B87" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D87" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="26"/>
-      <c r="F86" s="28"/>
-    </row>
-    <row r="87" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A87" s="33"/>
-      <c r="B87" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="8"/>
       <c r="E87" s="26"/>
+      <c r="F87" s="28"/>
     </row>
     <row r="88" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A88" s="33"/>
       <c r="B88" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="23">
-        <v>300000</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C88" s="23"/>
       <c r="D88" s="8"/>
       <c r="E88" s="26"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
     </row>
     <row r="89" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A89" s="33"/>
       <c r="B89" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="23"/>
+      <c r="C89" s="23">
+        <v>200000</v>
+      </c>
       <c r="D89" s="8"/>
       <c r="E89" s="26"/>
       <c r="F89" s="28"/>
@@ -2585,17 +2578,20 @@
     <row r="90" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A90" s="33"/>
       <c r="B90" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C90" s="23"/>
       <c r="D90" s="8"/>
       <c r="E90" s="26"/>
       <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
     </row>
     <row r="91" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A91" s="33"/>
       <c r="B91" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91" s="23"/>
       <c r="D91" s="8"/>
@@ -2605,7 +2601,7 @@
     <row r="92" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A92" s="33"/>
       <c r="B92" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C92" s="23"/>
       <c r="D92" s="8"/>
@@ -2613,30 +2609,40 @@
       <c r="F92" s="28"/>
     </row>
     <row r="93" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A93" s="32"/>
-      <c r="B93" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="24">
-        <f>SUBTOTAL(9,C87:C92)</f>
-        <v>300000</v>
-      </c>
-      <c r="D93" s="15"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="23"/>
+      <c r="D93" s="8"/>
       <c r="E93" s="26"/>
       <c r="F93" s="28"/>
     </row>
-    <row r="94" spans="1:55">
-      <c r="A94" s="34"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="29"/>
+    <row r="94" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A94" s="32"/>
+      <c r="B94" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="24">
+        <f>SUBTOTAL(9,C88:C93)</f>
+        <v>200000</v>
+      </c>
+      <c r="D94" s="15"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="28"/>
     </row>
     <row r="95" spans="1:55">
+      <c r="A95" s="34"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
       <c r="E95" s="27"/>
+      <c r="F95" s="29"/>
+    </row>
+    <row r="96" spans="1:55">
+      <c r="E96" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E81">
+  <autoFilter ref="A4:E82">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2646,9 +2652,9 @@
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="A84:D84"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
